--- a/database/Livro4.xlsx
+++ b/database/Livro4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanietrabalho/Desktop/projetos codigo recentes/projeto tarefas oficial/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanietrabalho/Desktop/proj/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7E603-1197-3D4B-AA08-1D4056C2D66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FD93CA-62FC-F147-9351-F7B0F593A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0A706CDB-AF09-4B48-B8E0-7BA61C7848DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0A706CDB-AF09-4B48-B8E0-7BA61C7848DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="224">
   <si>
     <t>descricao</t>
   </si>
@@ -86,12 +86,6 @@
     <t>days</t>
   </si>
   <si>
-    <t>Mandar arranjar Timer quadro da bomba da piscina</t>
-  </si>
-  <si>
-    <t>Instalar cartão SD na moldura digital</t>
-  </si>
-  <si>
     <t>Enviar leituras da àgua (SIMAR)</t>
   </si>
   <si>
@@ -708,6 +702,12 @@
   </si>
   <si>
     <t>ambos</t>
+  </si>
+  <si>
+    <t>Desentupir ralo WC nosso quarto e WC quarto visitas.</t>
+  </si>
+  <si>
+    <t>2024-07-27</t>
   </si>
 </sst>
 </file>
@@ -787,12 +787,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -808,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -821,6 +827,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1156,10 +1164,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9568A7-EED1-8248-9FF4-205816CF4A18}">
-  <dimension ref="A1:K160"/>
+  <sheetPr codeName="Folha1"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1246,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>15</v>
@@ -1273,16 +1282,16 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1293,20 +1302,22 @@
       <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="2">
+        <v>4</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>15</v>
@@ -1330,19 +1341,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -1353,9 +1364,7 @@
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="2">
-        <v>4</v>
-      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1368,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>15</v>
@@ -1398,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
@@ -1428,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>15</v>
@@ -1458,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>15</v>
@@ -1488,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>15</v>
@@ -1518,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>15</v>
@@ -1548,10 +1557,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -1560,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>12</v>
@@ -1572,13 +1581,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
@@ -1602,16 +1611,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -1620,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>12</v>
@@ -1638,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
@@ -1668,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
@@ -1695,17 +1704,15 @@
         <v>32</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="2">
         <v>0</v>
       </c>
@@ -1715,27 +1722,27 @@
       <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="2">
+        <v>26</v>
+      </c>
       <c r="K18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="2">
         <v>0</v>
       </c>
@@ -1752,16 +1759,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="2">
@@ -1774,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>13</v>
@@ -1788,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="2">
@@ -1803,7 +1810,9 @@
       <c r="I21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="2">
+        <v>30</v>
+      </c>
       <c r="K21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1816,67 +1825,67 @@
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6</v>
+      </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="2">
-        <v>28</v>
-      </c>
+      <c r="J22" s="3"/>
       <c r="K22" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2">
-        <v>30</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -1895,7 +1904,7 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1906,13 +1915,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -1925,7 +1934,7 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1936,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -1955,7 +1964,7 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1966,26 +1975,26 @@
         <v>2</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
+        <v>196</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1996,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -2015,7 +2024,7 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2026,19 +2035,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>12</v>
@@ -2056,13 +2065,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -2086,19 +2095,19 @@
         <v>2</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2">
-        <v>6</v>
+        <v>196</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>12</v>
@@ -2116,13 +2125,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -2146,19 +2155,19 @@
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>12</v>
@@ -2176,13 +2185,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -2200,25 +2209,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>12</v>
@@ -2230,25 +2239,25 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
+        <v>196</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>12</v>
@@ -2266,19 +2275,19 @@
         <v>2</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>12</v>
@@ -2296,19 +2305,19 @@
         <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>12</v>
@@ -2326,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
@@ -2356,15 +2365,15 @@
         <v>2</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2">
-        <v>2</v>
-      </c>
-      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
         <v>0</v>
       </c>
       <c r="G40" s="2">
@@ -2386,19 +2395,19 @@
         <v>2</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>12</v>
@@ -2416,22 +2425,22 @@
         <v>2</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="8">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="2" t="s">
@@ -2440,16 +2449,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -2458,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>12</v>
@@ -2470,19 +2479,19 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2">
         <v>2</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -2491,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="2" t="s">
@@ -2506,13 +2515,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -2521,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="2" t="s">
@@ -2536,13 +2545,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -2551,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="2" t="s">
@@ -2566,13 +2575,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E47" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
@@ -2581,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="2" t="s">
@@ -2590,19 +2599,19 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
@@ -2611,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="2" t="s">
@@ -2620,19 +2629,19 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" s="2">
         <v>2</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -2641,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="2" t="s">
@@ -2656,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -2671,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="2" t="s">
@@ -2686,13 +2695,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -2716,13 +2725,13 @@
         <v>2</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
@@ -2731,11 +2740,11 @@
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -2746,13 +2755,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -2765,7 +2774,7 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2776,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>11</v>
@@ -2795,7 +2804,7 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2806,13 +2815,13 @@
         <v>2</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -2825,7 +2834,7 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2836,22 +2845,20 @@
         <v>2</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2">
-        <v>6</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="2">
         <v>0</v>
       </c>
       <c r="G56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="2" t="s">
@@ -2860,25 +2867,25 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="2">
-        <v>3</v>
+        <v>196</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
       </c>
       <c r="G57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>12</v>
@@ -2890,26 +2897,28 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
       <c r="F58" s="2">
         <v>0</v>
       </c>
       <c r="G58" s="2">
         <v>0</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>78</v>
+      <c r="I58" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="2" t="s">
@@ -2924,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>15</v>
@@ -2954,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>15</v>
@@ -2984,7 +2993,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>15</v>
@@ -3014,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>15</v>
@@ -3044,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>15</v>
@@ -3074,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>15</v>
@@ -3104,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>15</v>
@@ -3134,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>15</v>
@@ -3153,7 +3162,7 @@
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -3164,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>15</v>
@@ -3191,17 +3200,15 @@
         <v>88</v>
       </c>
       <c r="B68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="6">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="2">
         <v>0</v>
       </c>
@@ -3213,7 +3220,7 @@
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -3221,25 +3228,25 @@
         <v>89</v>
       </c>
       <c r="B69" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="6">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
       </c>
       <c r="G69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="2" t="s">
@@ -3248,23 +3255,25 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3</v>
+      </c>
       <c r="F70" s="2">
         <v>0</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>12</v>
@@ -3276,28 +3285,28 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2">
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="2">
-        <v>3</v>
+        <v>196</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
       </c>
       <c r="F71" s="2">
         <v>0</v>
       </c>
       <c r="G71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="2" t="s">
@@ -3306,25 +3315,25 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="2">
-        <v>3</v>
+        <v>196</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
       </c>
       <c r="F72" s="2">
         <v>0</v>
       </c>
       <c r="G72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>12</v>
@@ -3336,13 +3345,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2">
         <v>3</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>15</v>
@@ -3357,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="2" t="s">
@@ -3372,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>15</v>
@@ -3387,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="2" t="s">
@@ -3396,28 +3405,28 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="6">
-        <v>1</v>
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2">
+        <v>4</v>
       </c>
       <c r="F75" s="2">
         <v>0</v>
       </c>
       <c r="G75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="2" t="s">
@@ -3426,28 +3435,28 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="6">
+        <v>196</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="2">
         <v>1</v>
       </c>
       <c r="F76" s="2">
         <v>0</v>
       </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="2" t="s">
@@ -3462,22 +3471,22 @@
         <v>4</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="2">
-        <v>4</v>
+        <v>196</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1</v>
       </c>
       <c r="F77" s="2">
         <v>0</v>
       </c>
       <c r="G77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="2" t="s">
@@ -3492,19 +3501,19 @@
         <v>4</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" s="2">
+        <v>196</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="6">
         <v>1</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
       </c>
       <c r="G78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>12</v>
@@ -3519,17 +3528,15 @@
         <v>102</v>
       </c>
       <c r="B79" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="6">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="2">
         <v>0</v>
       </c>
@@ -3537,9 +3544,11 @@
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J79" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
       <c r="K79" s="2" t="s">
         <v>13</v>
       </c>
@@ -3549,17 +3558,15 @@
         <v>103</v>
       </c>
       <c r="B80" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="6">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E80" s="3"/>
       <c r="F80" s="2">
         <v>0</v>
       </c>
@@ -3569,7 +3576,9 @@
       <c r="I80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J80" s="3"/>
+      <c r="J80" s="2">
+        <v>2</v>
+      </c>
       <c r="K80" s="2" t="s">
         <v>13</v>
       </c>
@@ -3582,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="2">
@@ -3598,10 +3607,10 @@
         <v>12</v>
       </c>
       <c r="J81" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -3612,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="2">
@@ -3628,7 +3637,7 @@
         <v>12</v>
       </c>
       <c r="J82" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>13</v>
@@ -3642,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="2">
@@ -3654,28 +3663,28 @@
       <c r="G83" s="2">
         <v>0</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>12</v>
+      <c r="I83" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="J83" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="2">
@@ -3687,25 +3696,23 @@
       <c r="I84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J84" s="2">
-        <v>5</v>
-      </c>
+      <c r="J84" s="3"/>
       <c r="K84" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="2">
@@ -3714,14 +3721,14 @@
       <c r="G85" s="2">
         <v>0</v>
       </c>
-      <c r="I85" s="4" t="s">
-        <v>109</v>
+      <c r="I85" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J85" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -3729,13 +3736,13 @@
         <v>110</v>
       </c>
       <c r="B86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="2">
@@ -3747,7 +3754,9 @@
       <c r="I86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J86" s="3"/>
+      <c r="J86" s="2">
+        <v>8</v>
+      </c>
       <c r="K86" s="2" t="s">
         <v>13</v>
       </c>
@@ -3760,10 +3769,10 @@
         <v>0</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="2">
@@ -3776,10 +3785,10 @@
         <v>12</v>
       </c>
       <c r="J87" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -3790,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="2">
@@ -3806,10 +3815,10 @@
         <v>12</v>
       </c>
       <c r="J88" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -3820,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="2">
@@ -3836,10 +3845,10 @@
         <v>12</v>
       </c>
       <c r="J89" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -3850,10 +3859,10 @@
         <v>0</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="2">
@@ -3866,10 +3875,10 @@
         <v>12</v>
       </c>
       <c r="J90" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -3880,26 +3889,28 @@
         <v>0</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2</v>
+      </c>
       <c r="F91" s="2">
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J91" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -3910,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="2">
@@ -3926,10 +3937,10 @@
         <v>12</v>
       </c>
       <c r="J92" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3940,28 +3951,26 @@
         <v>0</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="2">
-        <v>2</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="3"/>
       <c r="F93" s="2">
         <v>0</v>
       </c>
       <c r="G93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J93" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -3972,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="2">
@@ -3985,27 +3994,27 @@
         <v>0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="J94" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="2">
@@ -4018,7 +4027,7 @@
         <v>12</v>
       </c>
       <c r="J95" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>13</v>
@@ -4026,16 +4035,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="2">
@@ -4045,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="J96" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -4062,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="2">
@@ -4078,7 +4087,7 @@
         <v>12</v>
       </c>
       <c r="J97" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>13</v>
@@ -4092,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="2">
@@ -4108,10 +4117,10 @@
         <v>12</v>
       </c>
       <c r="J98" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -4122,26 +4131,28 @@
         <v>0</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2</v>
+      </c>
       <c r="F99" s="2">
         <v>0</v>
       </c>
       <c r="G99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J99" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -4152,10 +4163,10 @@
         <v>0</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="2">
@@ -4168,10 +4179,10 @@
         <v>12</v>
       </c>
       <c r="J100" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -4182,28 +4193,26 @@
         <v>0</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" s="2">
-        <v>2</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" s="3"/>
       <c r="F101" s="2">
         <v>0</v>
       </c>
       <c r="G101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J101" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -4214,26 +4223,26 @@
         <v>0</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
       <c r="F102" s="2">
         <v>0</v>
       </c>
       <c r="G102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J102" s="2">
-        <v>25</v>
-      </c>
+      <c r="J102" s="3"/>
       <c r="K102" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -4244,26 +4253,26 @@
         <v>0</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="2">
+        <v>3</v>
+      </c>
       <c r="F103" s="2">
         <v>0</v>
       </c>
       <c r="G103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J103" s="2">
-        <v>29</v>
-      </c>
+      <c r="J103" s="3"/>
       <c r="K103" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -4274,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>11</v>
@@ -4289,25 +4298,25 @@
         <v>1</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2">
         <v>0</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E105" s="2">
         <v>3</v>
@@ -4323,18 +4332,18 @@
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2">
         <v>0</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>11</v>
@@ -4349,11 +4358,11 @@
         <v>1</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -4364,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E107" s="2">
         <v>3</v>
@@ -4383,7 +4392,7 @@
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -4394,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>11</v>
@@ -4413,7 +4422,7 @@
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -4424,10 +4433,10 @@
         <v>0</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E109" s="2">
         <v>3</v>
@@ -4443,7 +4452,7 @@
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -4454,26 +4463,24 @@
         <v>0</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" s="3"/>
       <c r="F110" s="2">
         <v>0</v>
       </c>
       <c r="G110" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -4484,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E111" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F111" s="2">
         <v>0</v>
@@ -4503,7 +4510,7 @@
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -4514,24 +4521,28 @@
         <v>0</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="3"/>
+        <v>201</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2</v>
+      </c>
       <c r="F112" s="2">
         <v>0</v>
       </c>
       <c r="G112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J112" s="3"/>
+      <c r="J112" s="2">
+        <v>31</v>
+      </c>
       <c r="K112" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -4542,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F113" s="2">
         <v>0</v>
@@ -4561,7 +4572,7 @@
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -4572,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E114" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F114" s="2">
         <v>0</v>
@@ -4590,10 +4601,10 @@
         <v>12</v>
       </c>
       <c r="J114" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4604,10 +4615,10 @@
         <v>0</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
@@ -4619,11 +4630,11 @@
         <v>1</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -4634,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E116" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F116" s="2">
         <v>0</v>
@@ -4651,11 +4662,9 @@
       <c r="I116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J116" s="2">
-        <v>24</v>
-      </c>
+      <c r="J116" s="3"/>
       <c r="K116" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -4666,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E117" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F117" s="2">
         <v>0</v>
@@ -4681,11 +4690,11 @@
         <v>1</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4696,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E118" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
@@ -4711,11 +4720,11 @@
         <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -4726,10 +4735,10 @@
         <v>0</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E119" s="2">
         <v>6</v>
@@ -4741,11 +4750,11 @@
         <v>1</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -4756,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E120" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F120" s="2">
         <v>0</v>
@@ -4771,11 +4780,13 @@
         <v>1</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J120" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="J120" s="2">
+        <v>33</v>
+      </c>
       <c r="K120" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -4786,13 +4797,13 @@
         <v>0</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E121" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F121" s="2">
         <v>0</v>
@@ -4801,22 +4812,22 @@
         <v>1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="2" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>11</v>
@@ -4831,30 +4842,28 @@
         <v>1</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J122" s="2">
-        <v>33</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J122" s="3"/>
       <c r="K122" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2">
         <v>0</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E123" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F123" s="2">
         <v>0</v>
@@ -4863,11 +4872,11 @@
         <v>1</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="2" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4875,7 +4884,7 @@
         <v>151</v>
       </c>
       <c r="B124" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>205</v>
@@ -4884,7 +4893,7 @@
         <v>11</v>
       </c>
       <c r="E124" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F124" s="2">
         <v>0</v>
@@ -4893,11 +4902,11 @@
         <v>1</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -4905,16 +4914,16 @@
         <v>152</v>
       </c>
       <c r="B125" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E125" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F125" s="2">
         <v>0</v>
@@ -4923,28 +4932,28 @@
         <v>1</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2">
         <v>0</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E126" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F126" s="2">
         <v>0</v>
@@ -4953,28 +4962,28 @@
         <v>1</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>206</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E127" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F127" s="2">
         <v>0</v>
@@ -4983,11 +4992,11 @@
         <v>1</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -4998,13 +5007,13 @@
         <v>0</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" s="2">
         <v>0</v>
@@ -5013,25 +5022,25 @@
         <v>1</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="2" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B129" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
@@ -5043,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="2" t="s">
@@ -5052,19 +5061,19 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E130" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130" s="2">
         <v>0</v>
@@ -5073,25 +5082,25 @@
         <v>1</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2">
         <v>4</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E131" s="2">
         <v>1</v>
@@ -5103,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="2" t="s">
@@ -5118,10 +5127,10 @@
         <v>4</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E132" s="2">
         <v>1</v>
@@ -5133,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="2" t="s">
@@ -5148,10 +5157,10 @@
         <v>4</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E133" s="2">
         <v>1</v>
@@ -5163,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="2" t="s">
@@ -5178,10 +5187,10 @@
         <v>4</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E134" s="2">
         <v>1</v>
@@ -5193,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="2" t="s">
@@ -5208,10 +5217,10 @@
         <v>4</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E135" s="2">
         <v>1</v>
@@ -5238,10 +5247,10 @@
         <v>4</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E136" s="2">
         <v>1</v>
@@ -5253,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="2" t="s">
@@ -5268,10 +5277,10 @@
         <v>4</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E137" s="2">
         <v>1</v>
@@ -5295,13 +5304,13 @@
         <v>168</v>
       </c>
       <c r="B138" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>29</v>
+        <v>205</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E138" s="2">
         <v>1</v>
@@ -5310,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="G138" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="2" t="s">
@@ -5325,13 +5334,13 @@
         <v>169</v>
       </c>
       <c r="B139" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E139" s="2">
         <v>1</v>
@@ -5343,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="2" t="s">
@@ -5355,13 +5364,13 @@
         <v>170</v>
       </c>
       <c r="B140" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>15</v>
+        <v>205</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
@@ -5370,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="G140" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="2" t="s">
@@ -5385,13 +5394,13 @@
         <v>171</v>
       </c>
       <c r="B141" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E141" s="2">
         <v>1</v>
@@ -5403,28 +5412,28 @@
         <v>1</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B142" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E142" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F142" s="2">
         <v>0</v>
@@ -5433,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="2" t="s">
@@ -5442,7 +5451,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B143" s="2">
         <v>0</v>
@@ -5451,10 +5460,10 @@
         <v>209</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E143" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F143" s="2">
         <v>0</v>
@@ -5463,11 +5472,11 @@
         <v>1</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="2" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -5480,17 +5489,17 @@
       <c r="C144" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>11</v>
+      <c r="D144" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E144" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F144" s="2">
         <v>0</v>
       </c>
       <c r="G144" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>12</v>
@@ -5505,16 +5514,16 @@
         <v>176</v>
       </c>
       <c r="B145" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>211</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E145" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F145" s="2">
         <v>0</v>
@@ -5523,22 +5532,22 @@
         <v>1</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B146" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>15</v>
@@ -5562,16 +5571,16 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B147" s="2">
         <v>1</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E147" s="2">
         <v>1</v>
@@ -5583,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="2" t="s">
@@ -5592,28 +5601,28 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B148" s="2">
         <v>2</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>15</v>
+        <v>213</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E148" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F148" s="2">
         <v>0</v>
       </c>
       <c r="G148" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="2" t="s">
@@ -5622,16 +5631,16 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B149" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E149" s="2">
         <v>1</v>
@@ -5643,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="2" t="s">
@@ -5655,16 +5664,16 @@
         <v>183</v>
       </c>
       <c r="B150" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E150" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F150" s="2">
         <v>0</v>
@@ -5673,11 +5682,11 @@
         <v>1</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -5685,13 +5694,13 @@
         <v>184</v>
       </c>
       <c r="B151" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E151" s="2">
         <v>1</v>
@@ -5703,11 +5712,11 @@
         <v>1</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -5718,13 +5727,13 @@
         <v>0</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E152" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F152" s="2">
         <v>0</v>
@@ -5733,25 +5742,25 @@
         <v>1</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B153" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>216</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
@@ -5763,16 +5772,16 @@
         <v>1</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B154" s="2">
         <v>0</v>
@@ -5781,10 +5790,10 @@
         <v>217</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" s="2">
         <v>0</v>
@@ -5793,25 +5802,25 @@
         <v>1</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B155" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E155" s="2">
         <v>1</v>
@@ -5823,25 +5832,25 @@
         <v>1</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B156" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E156" s="2">
         <v>1</v>
@@ -5853,28 +5862,28 @@
         <v>1</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B157" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>219</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E157" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F157" s="2">
         <v>0</v>
@@ -5883,11 +5892,11 @@
         <v>1</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -5895,16 +5904,16 @@
         <v>194</v>
       </c>
       <c r="B158" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E158" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F158" s="2">
         <v>0</v>
@@ -5921,20 +5930,20 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="9" t="s">
-        <v>195</v>
+      <c r="A159" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="B159" s="2">
-        <v>2</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E159" s="2">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
       </c>
       <c r="F159" s="2">
         <v>0</v>
@@ -5943,48 +5952,17 @@
         <v>1</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J159" s="3"/>
+        <v>12</v>
+      </c>
       <c r="K159" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B160" s="2">
-        <v>0</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E160" s="2">
-        <v>4</v>
-      </c>
-      <c r="F160" s="2">
-        <v>0</v>
-      </c>
-      <c r="G160" s="2">
-        <v>1</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J160" s="3"/>
-      <c r="K160" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I58" r:id="rId1" xr:uid="{C3329515-D10D-DC43-858C-AF530D839216}"/>
-    <hyperlink ref="I85" r:id="rId2" xr:uid="{E560C88C-5522-3941-8BE3-31B7E87982F8}"/>
+    <hyperlink ref="I56" r:id="rId1" xr:uid="{C3329515-D10D-DC43-858C-AF530D839216}"/>
+    <hyperlink ref="I83" r:id="rId2" xr:uid="{E560C88C-5522-3941-8BE3-31B7E87982F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
